--- a/analysis/cfg-case-study/result-summary/mission-profile.xlsx
+++ b/analysis/cfg-case-study/result-summary/mission-profile.xlsx
@@ -5616,7 +5616,7 @@
   <dimension ref="A1:U62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/analysis/cfg-case-study/result-summary/mission-profile.xlsx
+++ b/analysis/cfg-case-study/result-summary/mission-profile.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000" activeTab="2"/>
+    <workbookView windowWidth="27948" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Testing" sheetId="2" r:id="rId1"/>
-    <sheet name="Low Altitude (1500 ft)" sheetId="1" r:id="rId2"/>
-    <sheet name="High Altitude (3000 ft)" sheetId="3" r:id="rId3"/>
+    <sheet name="Low Altitude (1500 ft)" sheetId="1" r:id="rId1"/>
+    <sheet name="High Altitude (3000 ft)" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,191 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="99">
-  <si>
-    <t>Mission Segment</t>
-  </si>
-  <si>
-    <t>Current JSON File</t>
-  </si>
-  <si>
-    <t>Velocity
-(m/s)</t>
-  </si>
-  <si>
-    <t>Time
-(s)</t>
-  </si>
-  <si>
-    <t>Distance
-(m)</t>
-  </si>
-  <si>
-    <t>Distance
-(mi)</t>
-  </si>
-  <si>
-    <t>Δh (ft)</t>
-  </si>
-  <si>
-    <t>Cumulative AGL (ft)</t>
-  </si>
-  <si>
-    <t>Depart Taxi</t>
-  </si>
-  <si>
-    <t>→</t>
-  </si>
-  <si>
-    <t>depart_taxi_avg_h_m_p_s</t>
-  </si>
-  <si>
-    <t>↑</t>
-  </si>
-  <si>
-    <t>Hover climb</t>
-  </si>
-  <si>
-    <t>hover_climb_avg_v_m_p_s</t>
-  </si>
-  <si>
-    <t>Transition Climb</t>
-  </si>
-  <si>
-    <t>trans_climb_avg_h_m_p_s</t>
-  </si>
-  <si>
-    <t>trans_climb_v_m_p_s</t>
-  </si>
-  <si>
-    <t>Depart Procedures</t>
-  </si>
-  <si>
-    <t>depart_proc_h_m_p_s</t>
-  </si>
-  <si>
-    <t>Accelerate Climb</t>
-  </si>
-  <si>
-    <t>accel_climb_avg_h_m_p_s</t>
-  </si>
-  <si>
-    <t>accel_climb_v_m_p_s</t>
-  </si>
-  <si>
-    <t>Cruise</t>
-  </si>
-  <si>
-    <t>cruise_h_m_p_s</t>
-  </si>
-  <si>
-    <t>Decelerate Descend</t>
-  </si>
-  <si>
-    <t>decel_descend_avg_h_m_p_s</t>
-  </si>
-  <si>
-    <t>decel_descend_v_m_p_s</t>
-  </si>
-  <si>
-    <t>−2,392.7</t>
-  </si>
-  <si>
-    <t>Arrive Procedures</t>
-  </si>
-  <si>
-    <t>arrive_proc_h_m_p_s</t>
-  </si>
-  <si>
-    <t>Transition Descend</t>
-  </si>
-  <si>
-    <t>trans_descend_avg_h_m_p_s</t>
-  </si>
-  <si>
-    <t>trans_descend_v_m_p_s</t>
-  </si>
-  <si>
-    <t>−502.0</t>
-  </si>
-  <si>
-    <t>Hover Descend</t>
-  </si>
-  <si>
-    <t>hover_descend_avg_v_m_p_s</t>
-  </si>
-  <si>
-    <t>−100.0</t>
-  </si>
-  <si>
-    <t>Arrive Taxi</t>
-  </si>
-  <si>
-    <t>arrive_taxi_avg_h_m_p_s</t>
-  </si>
-  <si>
-    <t>Reserve Hover Climb</t>
-  </si>
-  <si>
-    <t>reserve_hover_climb_avg_v_m_p_s</t>
-  </si>
-  <si>
-    <t>Reserve Transition Climb</t>
-  </si>
-  <si>
-    <t>reserve_trans_climb_avg_h_m_p_s</t>
-  </si>
-  <si>
-    <t>reserve_trans_climb_v_m_p_s</t>
-  </si>
-  <si>
-    <t>Reserve Accelerate Climb</t>
-  </si>
-  <si>
-    <t>reserve_accel_climb_avg_h_m_p_s</t>
-  </si>
-  <si>
-    <t>reserve_accel_climb_v_m_p_s</t>
-  </si>
-  <si>
-    <t>Reserve Cruise</t>
-  </si>
-  <si>
-    <t>reserve_cruise_h_m_p_s</t>
-  </si>
-  <si>
-    <t>Reserve Decelerate Descend</t>
-  </si>
-  <si>
-    <t>reserve_decel_descend_avg_h_m_p_s</t>
-  </si>
-  <si>
-    <t>reserve_decel_descend_v_m_p_s</t>
-  </si>
-  <si>
-    <t>−401.6</t>
-  </si>
-  <si>
-    <t>Reserve Transition Descend</t>
-  </si>
-  <si>
-    <t>reserve_trans_descend_avg_h_m_p_s</t>
-  </si>
-  <si>
-    <t>reserve_trans_descend_v_m_p_s</t>
-  </si>
-  <si>
-    <t>Reserve Hover Descend</t>
-  </si>
-  <si>
-    <t>reserve_hover_descend_avg_v_m_p_s</t>
-  </si>
-  <si>
-    <t>Time (s):</t>
-  </si>
-  <si>
-    <t>Distance (mi)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
   <si>
     <t>V_stall (m/s)</t>
   </si>
@@ -246,6 +61,9 @@
     <t>For sensitivity analysis, keep horizontal and vertical speeds fixed; only adjust the time of each segment based on the original JSON file.</t>
   </si>
   <si>
+    <t>Cumulative AGL (ft)</t>
+  </si>
+  <si>
     <t>Main mission</t>
   </si>
   <si>
@@ -306,6 +124,9 @@
     <t>Taxi phases are not accounted for the mission's range</t>
   </si>
   <si>
+    <t>Mission Segment</t>
+  </si>
+  <si>
     <t>Short Range
 (30 miles)</t>
   </si>
@@ -316,6 +137,163 @@
   <si>
     <t>Long Range
 (60 miles)</t>
+  </si>
+  <si>
+    <t>Velocity
+(m/s)</t>
+  </si>
+  <si>
+    <t>Time
+(s)</t>
+  </si>
+  <si>
+    <t>Distance
+(m)</t>
+  </si>
+  <si>
+    <t>Distance
+(mi)</t>
+  </si>
+  <si>
+    <t>Δh (ft)</t>
+  </si>
+  <si>
+    <t>Depart Taxi</t>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>depart_taxi_avg_h_m_p_s</t>
+  </si>
+  <si>
+    <t>↑</t>
+  </si>
+  <si>
+    <t>Hover climb</t>
+  </si>
+  <si>
+    <t>hover_climb_avg_v_m_p_s</t>
+  </si>
+  <si>
+    <t>Transition Climb</t>
+  </si>
+  <si>
+    <t>trans_climb_avg_h_m_p_s</t>
+  </si>
+  <si>
+    <t>trans_climb_v_m_p_s</t>
+  </si>
+  <si>
+    <t>Depart Procedures</t>
+  </si>
+  <si>
+    <t>depart_proc_h_m_p_s</t>
+  </si>
+  <si>
+    <t>Accelerate Climb</t>
+  </si>
+  <si>
+    <t>accel_climb_avg_h_m_p_s</t>
+  </si>
+  <si>
+    <t>accel_climb_v_m_p_s</t>
+  </si>
+  <si>
+    <t>Cruise</t>
+  </si>
+  <si>
+    <t>cruise_h_m_p_s</t>
+  </si>
+  <si>
+    <t>Decelerate Descend</t>
+  </si>
+  <si>
+    <t>decel_descend_avg_h_m_p_s</t>
+  </si>
+  <si>
+    <t>decel_descend_v_m_p_s</t>
+  </si>
+  <si>
+    <t>Arrive Procedures</t>
+  </si>
+  <si>
+    <t>arrive_proc_h_m_p_s</t>
+  </si>
+  <si>
+    <t>Transition Descend</t>
+  </si>
+  <si>
+    <t>trans_descend_avg_h_m_p_s</t>
+  </si>
+  <si>
+    <t>trans_descend_v_m_p_s</t>
+  </si>
+  <si>
+    <t>Hover Descend</t>
+  </si>
+  <si>
+    <t>hover_descend_avg_v_m_p_s</t>
+  </si>
+  <si>
+    <t>Arrive Taxi</t>
+  </si>
+  <si>
+    <t>arrive_taxi_avg_h_m_p_s</t>
+  </si>
+  <si>
+    <t>Reserve Hover Climb</t>
+  </si>
+  <si>
+    <t>reserve_hover_climb_avg_v_m_p_s</t>
+  </si>
+  <si>
+    <t>Reserve Transition Climb</t>
+  </si>
+  <si>
+    <t>reserve_trans_climb_avg_h_m_p_s</t>
+  </si>
+  <si>
+    <t>reserve_trans_climb_v_m_p_s</t>
+  </si>
+  <si>
+    <t>Reserve Accelerate Climb</t>
+  </si>
+  <si>
+    <t>reserve_accel_climb_avg_h_m_p_s</t>
+  </si>
+  <si>
+    <t>reserve_accel_climb_v_m_p_s</t>
+  </si>
+  <si>
+    <t>Reserve Cruise</t>
+  </si>
+  <si>
+    <t>reserve_cruise_h_m_p_s</t>
+  </si>
+  <si>
+    <t>Reserve Decelerate Descend</t>
+  </si>
+  <si>
+    <t>reserve_decel_descend_avg_h_m_p_s</t>
+  </si>
+  <si>
+    <t>reserve_decel_descend_v_m_p_s</t>
+  </si>
+  <si>
+    <t>Reserve Transition Descend</t>
+  </si>
+  <si>
+    <t>reserve_trans_descend_avg_h_m_p_s</t>
+  </si>
+  <si>
+    <t>reserve_trans_descend_v_m_p_s</t>
+  </si>
+  <si>
+    <t>Reserve Hover Descend</t>
+  </si>
+  <si>
+    <t>reserve_hover_descend_avg_v_m_p_s</t>
   </si>
   <si>
     <t>Main</t>
@@ -806,7 +784,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1218,19 +1196,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1358,7 +1323,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1370,34 +1335,34 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1482,7 +1447,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2046,177 +2011,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2538,1043 +2332,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I42"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="26.537037037037" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.5925925925926" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6388888888889" style="1" customWidth="1"/>
-    <col min="4" max="9" width="10.7777777777778" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="35" customHeight="1" spans="1:9">
-      <c r="A1" s="189" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="191" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-    </row>
-    <row r="2" ht="45" customHeight="1" spans="1:9">
-      <c r="A2" s="192"/>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="194" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="195" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="195" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="195" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="195" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1" spans="1:9">
-      <c r="A3" s="196" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="197" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="198" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="199">
-        <v>1.34</v>
-      </c>
-      <c r="E3" s="200">
-        <v>30</v>
-      </c>
-      <c r="F3" s="201">
-        <f>D3*E3</f>
-        <v>40.2</v>
-      </c>
-      <c r="G3" s="202">
-        <f>F3*0.000621371</f>
-        <v>0.0249791142</v>
-      </c>
-      <c r="H3" s="203"/>
-      <c r="I3" s="240"/>
-    </row>
-    <row r="4" ht="15" customHeight="1" spans="1:9">
-      <c r="A4" s="196"/>
-      <c r="B4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="204"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="206"/>
-      <c r="F4" s="207">
-        <f t="shared" ref="F4:F38" si="0">D4*E4</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="208">
-        <f t="shared" ref="G4:G38" si="1">F4*0.000621371</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="209">
-        <v>0</v>
-      </c>
-      <c r="I4" s="241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" spans="1:9">
-      <c r="A5" s="210" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="211"/>
-      <c r="D5" s="212"/>
-      <c r="E5" s="213">
-        <v>12</v>
-      </c>
-      <c r="F5" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="214">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="215"/>
-      <c r="I5" s="242"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" spans="1:9">
-      <c r="A6" s="210"/>
-      <c r="B6" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="211" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="212">
-        <v>2.54</v>
-      </c>
-      <c r="E6" s="213"/>
-      <c r="F6" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="214">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="215">
-        <v>100</v>
-      </c>
-      <c r="I6" s="242">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1" spans="1:9">
-      <c r="A7" s="196" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="204" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="205">
-        <v>24.4</v>
-      </c>
-      <c r="E7" s="206">
-        <v>30</v>
-      </c>
-      <c r="F7" s="207">
-        <f t="shared" si="0"/>
-        <v>732</v>
-      </c>
-      <c r="G7" s="208">
-        <f t="shared" si="1"/>
-        <v>0.454843572</v>
-      </c>
-      <c r="H7" s="209"/>
-      <c r="I7" s="241"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" spans="1:9">
-      <c r="A8" s="196"/>
-      <c r="B8" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="204" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="205">
-        <v>5.1</v>
-      </c>
-      <c r="E8" s="206"/>
-      <c r="F8" s="207">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="208">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="209">
-        <v>502</v>
-      </c>
-      <c r="I8" s="241">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1" spans="1:9">
-      <c r="A9" s="210" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="211" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="212">
-        <v>48.8</v>
-      </c>
-      <c r="E9" s="213">
-        <v>18</v>
-      </c>
-      <c r="F9" s="39">
-        <f t="shared" si="0"/>
-        <v>878.4</v>
-      </c>
-      <c r="G9" s="214">
-        <f t="shared" si="1"/>
-        <v>0.5458122864</v>
-      </c>
-      <c r="H9" s="215"/>
-      <c r="I9" s="242"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" spans="1:9">
-      <c r="A10" s="210"/>
-      <c r="B10" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="211"/>
-      <c r="D10" s="212"/>
-      <c r="E10" s="213"/>
-      <c r="F10" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="214">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="215"/>
-      <c r="I10" s="242"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" spans="1:9">
-      <c r="A11" s="196" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="204" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="205">
-        <v>58</v>
-      </c>
-      <c r="E11" s="206">
-        <v>143</v>
-      </c>
-      <c r="F11" s="207">
-        <f t="shared" si="0"/>
-        <v>8294</v>
-      </c>
-      <c r="G11" s="208">
-        <f t="shared" si="1"/>
-        <v>5.153651074</v>
-      </c>
-      <c r="H11" s="209"/>
-      <c r="I11" s="241"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" spans="1:9">
-      <c r="A12" s="196"/>
-      <c r="B12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="204" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="205">
-        <v>5.1</v>
-      </c>
-      <c r="E12" s="206"/>
-      <c r="F12" s="207">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="208">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="209">
-        <v>2392.7</v>
-      </c>
-      <c r="I12" s="241">
-        <v>2994.7</v>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1" spans="1:9">
-      <c r="A13" s="216" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="217" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="218">
-        <v>67.1</v>
-      </c>
-      <c r="E13" s="219">
-        <v>664</v>
-      </c>
-      <c r="F13" s="49">
-        <f t="shared" si="0"/>
-        <v>44554.4</v>
-      </c>
-      <c r="G13" s="220">
-        <f t="shared" si="1"/>
-        <v>27.6848120824</v>
-      </c>
-      <c r="H13" s="221"/>
-      <c r="I13" s="243"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" spans="1:9">
-      <c r="A14" s="216"/>
-      <c r="B14" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="217"/>
-      <c r="D14" s="218"/>
-      <c r="E14" s="219"/>
-      <c r="F14" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="220">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="221">
-        <v>0</v>
-      </c>
-      <c r="I14" s="243">
-        <v>2994.7</v>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1" spans="1:9">
-      <c r="A15" s="196" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="204" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="205">
-        <v>58</v>
-      </c>
-      <c r="E15" s="206">
-        <v>143</v>
-      </c>
-      <c r="F15" s="207">
-        <f t="shared" si="0"/>
-        <v>8294</v>
-      </c>
-      <c r="G15" s="208">
-        <f t="shared" si="1"/>
-        <v>5.153651074</v>
-      </c>
-      <c r="H15" s="209"/>
-      <c r="I15" s="241"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" spans="1:9">
-      <c r="A16" s="196"/>
-      <c r="B16" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="204" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="205">
-        <v>5.1</v>
-      </c>
-      <c r="E16" s="206"/>
-      <c r="F16" s="207">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="208">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="209" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="241">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1" spans="1:9">
-      <c r="A17" s="210" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="211" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="212">
-        <v>48.8</v>
-      </c>
-      <c r="E17" s="213">
-        <v>18</v>
-      </c>
-      <c r="F17" s="39">
-        <f t="shared" si="0"/>
-        <v>878.4</v>
-      </c>
-      <c r="G17" s="214">
-        <f t="shared" si="1"/>
-        <v>0.5458122864</v>
-      </c>
-      <c r="H17" s="215"/>
-      <c r="I17" s="242"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" spans="1:9">
-      <c r="A18" s="210"/>
-      <c r="B18" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="211"/>
-      <c r="D18" s="212"/>
-      <c r="E18" s="213"/>
-      <c r="F18" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="214">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="215"/>
-      <c r="I18" s="242"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" spans="1:9">
-      <c r="A19" s="196" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="204" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="205">
-        <v>24.4</v>
-      </c>
-      <c r="E19" s="206">
-        <v>30</v>
-      </c>
-      <c r="F19" s="207">
-        <f t="shared" si="0"/>
-        <v>732</v>
-      </c>
-      <c r="G19" s="208">
-        <f t="shared" si="1"/>
-        <v>0.454843572</v>
-      </c>
-      <c r="H19" s="209"/>
-      <c r="I19" s="241"/>
-    </row>
-    <row r="20" ht="15" customHeight="1" spans="1:9">
-      <c r="A20" s="196"/>
-      <c r="B20" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="204" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="205">
-        <v>5.1</v>
-      </c>
-      <c r="E20" s="206"/>
-      <c r="F20" s="207">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="208">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="209" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" s="241">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1" spans="1:9">
-      <c r="A21" s="210" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="211"/>
-      <c r="D21" s="212"/>
-      <c r="E21" s="213">
-        <v>12</v>
-      </c>
-      <c r="F21" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="214">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="215"/>
-      <c r="I21" s="242"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" spans="1:9">
-      <c r="A22" s="210"/>
-      <c r="B22" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="211" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="212">
-        <v>2.54</v>
-      </c>
-      <c r="E22" s="213"/>
-      <c r="F22" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="214">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="215" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" s="242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1" spans="1:9">
-      <c r="A23" s="196" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="204" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="205">
-        <v>1.34</v>
-      </c>
-      <c r="E23" s="206">
-        <v>30</v>
-      </c>
-      <c r="F23" s="207">
-        <f t="shared" si="0"/>
-        <v>40.2</v>
-      </c>
-      <c r="G23" s="208">
-        <f t="shared" si="1"/>
-        <v>0.0249791142</v>
-      </c>
-      <c r="H23" s="209"/>
-      <c r="I23" s="241"/>
-    </row>
-    <row r="24" ht="15" customHeight="1" spans="1:9">
-      <c r="A24" s="196"/>
-      <c r="B24" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="204"/>
-      <c r="D24" s="222"/>
-      <c r="E24" s="223"/>
-      <c r="F24" s="224">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="225">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="226">
-        <v>0</v>
-      </c>
-      <c r="I24" s="244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1" spans="1:9">
-      <c r="A25" s="227" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="228"/>
-      <c r="D25" s="212"/>
-      <c r="E25" s="213">
-        <v>12</v>
-      </c>
-      <c r="F25" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="214">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="215"/>
-      <c r="I25" s="242"/>
-    </row>
-    <row r="26" ht="15" customHeight="1" spans="1:9">
-      <c r="A26" s="210"/>
-      <c r="B26" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="211" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="212">
-        <v>2.54</v>
-      </c>
-      <c r="E26" s="213"/>
-      <c r="F26" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="214">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="215">
-        <v>100</v>
-      </c>
-      <c r="I26" s="242">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1" spans="1:9">
-      <c r="A27" s="196" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="204" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="205">
-        <v>24.4</v>
-      </c>
-      <c r="E27" s="206">
-        <v>30</v>
-      </c>
-      <c r="F27" s="207">
-        <f t="shared" si="0"/>
-        <v>732</v>
-      </c>
-      <c r="G27" s="208">
-        <f t="shared" si="1"/>
-        <v>0.454843572</v>
-      </c>
-      <c r="H27" s="209"/>
-      <c r="I27" s="241"/>
-    </row>
-    <row r="28" ht="15" customHeight="1" spans="1:9">
-      <c r="A28" s="196"/>
-      <c r="B28" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="204" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="205">
-        <v>5.1</v>
-      </c>
-      <c r="E28" s="206"/>
-      <c r="F28" s="207">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="208">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="209">
-        <v>502</v>
-      </c>
-      <c r="I28" s="241">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1" spans="1:9">
-      <c r="A29" s="210" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="211" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="212">
-        <v>58</v>
-      </c>
-      <c r="E29" s="213">
-        <v>24</v>
-      </c>
-      <c r="F29" s="39">
-        <f t="shared" si="0"/>
-        <v>1392</v>
-      </c>
-      <c r="G29" s="214">
-        <f t="shared" si="1"/>
-        <v>0.864948432</v>
-      </c>
-      <c r="H29" s="215"/>
-      <c r="I29" s="242"/>
-    </row>
-    <row r="30" ht="15" customHeight="1" spans="1:9">
-      <c r="A30" s="210"/>
-      <c r="B30" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="211" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="212">
-        <v>5.1</v>
-      </c>
-      <c r="E30" s="213"/>
-      <c r="F30" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="214">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="215">
-        <v>401.6</v>
-      </c>
-      <c r="I30" s="242">
-        <v>1003.6</v>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1" spans="1:9">
-      <c r="A31" s="216" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="217" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="218">
-        <v>67.1</v>
-      </c>
-      <c r="E31" s="219">
-        <v>54</v>
-      </c>
-      <c r="F31" s="49">
-        <f t="shared" si="0"/>
-        <v>3623.4</v>
-      </c>
-      <c r="G31" s="220">
-        <f t="shared" si="1"/>
-        <v>2.2514756814</v>
-      </c>
-      <c r="H31" s="221"/>
-      <c r="I31" s="243"/>
-    </row>
-    <row r="32" ht="15" customHeight="1" spans="1:9">
-      <c r="A32" s="216"/>
-      <c r="B32" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="217"/>
-      <c r="D32" s="218"/>
-      <c r="E32" s="219"/>
-      <c r="F32" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="220">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="221">
-        <v>0</v>
-      </c>
-      <c r="I32" s="243">
-        <v>1003.6</v>
-      </c>
-    </row>
-    <row r="33" ht="15" customHeight="1" spans="1:9">
-      <c r="A33" s="210" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="211" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="212">
-        <v>58</v>
-      </c>
-      <c r="E33" s="213">
-        <v>24</v>
-      </c>
-      <c r="F33" s="39">
-        <f t="shared" si="0"/>
-        <v>1392</v>
-      </c>
-      <c r="G33" s="214">
-        <f t="shared" si="1"/>
-        <v>0.864948432</v>
-      </c>
-      <c r="H33" s="215"/>
-      <c r="I33" s="242"/>
-    </row>
-    <row r="34" ht="15" customHeight="1" spans="1:9">
-      <c r="A34" s="210"/>
-      <c r="B34" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="211" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="212">
-        <v>5.1</v>
-      </c>
-      <c r="E34" s="213"/>
-      <c r="F34" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="214">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="215" t="s">
-        <v>52</v>
-      </c>
-      <c r="I34" s="242">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="35" ht="15" customHeight="1" spans="1:9">
-      <c r="A35" s="196" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="204" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="205">
-        <v>24.4</v>
-      </c>
-      <c r="E35" s="206">
-        <v>30</v>
-      </c>
-      <c r="F35" s="207">
-        <f t="shared" si="0"/>
-        <v>732</v>
-      </c>
-      <c r="G35" s="208">
-        <f t="shared" si="1"/>
-        <v>0.454843572</v>
-      </c>
-      <c r="H35" s="209"/>
-      <c r="I35" s="241"/>
-    </row>
-    <row r="36" ht="15" customHeight="1" spans="1:9">
-      <c r="A36" s="196"/>
-      <c r="B36" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="204" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="205">
-        <v>5.1</v>
-      </c>
-      <c r="E36" s="206"/>
-      <c r="F36" s="207">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="208">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="209" t="s">
-        <v>33</v>
-      </c>
-      <c r="I36" s="241">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" ht="15" customHeight="1" spans="1:9">
-      <c r="A37" s="210" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="211"/>
-      <c r="D37" s="212"/>
-      <c r="E37" s="213">
-        <v>12</v>
-      </c>
-      <c r="F37" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="214">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="215"/>
-      <c r="I37" s="242"/>
-    </row>
-    <row r="38" ht="15" customHeight="1" spans="1:9">
-      <c r="A38" s="229"/>
-      <c r="B38" s="230" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="231" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="232">
-        <v>2.54</v>
-      </c>
-      <c r="E38" s="233"/>
-      <c r="F38" s="234">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="235">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="236" t="s">
-        <v>36</v>
-      </c>
-      <c r="I38" s="245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="7:7">
-      <c r="G39" s="237"/>
-    </row>
-    <row r="40" ht="30" customHeight="1" spans="4:7">
-      <c r="D40" s="190" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40" s="238">
-        <f>SUM(E3:E38)</f>
-        <v>1316</v>
-      </c>
-      <c r="F40" s="190" t="s">
-        <v>59</v>
-      </c>
-      <c r="G40" s="239">
-        <f>SUM(G3:G38)</f>
-        <v>44.934443865</v>
-      </c>
-    </row>
-    <row r="42" spans="7:7">
-      <c r="G42" s="237">
-        <f>SUM(G27,G29,G31,G33,G35)</f>
-        <v>4.8910596894</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A1:C2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:U62"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3588,107 +2349,107 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4">
         <v>40.6</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2" s="7">
         <v>1500</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="B3" s="8">
         <v>500</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="B4" s="8">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4">
         <v>30</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="B6" s="4">
         <v>45</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4">
         <v>60</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="6:6">
       <c r="F8" s="6" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" ht="15.15"/>
     <row r="10" ht="35" customHeight="1" spans="1:21">
       <c r="A10" s="10" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
       <c r="D10" s="13" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -3696,7 +2457,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="116"/>
       <c r="J10" s="13" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
@@ -3704,7 +2465,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="116"/>
       <c r="P10" s="13" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
@@ -3717,69 +2478,69 @@
       <c r="B11" s="16"/>
       <c r="C11" s="17"/>
       <c r="D11" s="18" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="117" t="s">
-        <v>7</v>
-      </c>
       <c r="J11" s="18" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="K11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="M11" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="O11" s="117" t="s">
-        <v>7</v>
-      </c>
       <c r="P11" s="18" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="R11" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="T11" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="U11" s="117" t="s">
         <v>3</v>
-      </c>
-      <c r="R11" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="S11" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="T11" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="U11" s="117" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:21">
       <c r="A12" s="23" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D12" s="26">
         <v>1.34</v>
@@ -3833,7 +2594,7 @@
     <row r="13" ht="15" customHeight="1" spans="1:21">
       <c r="A13" s="23"/>
       <c r="B13" s="24" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
@@ -3857,10 +2618,10 @@
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:21">
       <c r="A14" s="32" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="35"/>
@@ -3891,10 +2652,10 @@
     <row r="15" ht="15" customHeight="1" spans="1:21">
       <c r="A15" s="32"/>
       <c r="B15" s="33" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D15" s="35">
         <v>2.54</v>
@@ -3941,13 +2702,13 @@
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:21">
       <c r="A16" s="23" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D16" s="26">
         <v>24.4</v>
@@ -4001,10 +2762,10 @@
     <row r="17" ht="15" customHeight="1" spans="1:21">
       <c r="A17" s="23"/>
       <c r="B17" s="24" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D17" s="26">
         <v>5.1</v>
@@ -4051,13 +2812,13 @@
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:21">
       <c r="A18" s="32" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D18" s="35">
         <v>48.7</v>
@@ -4111,7 +2872,7 @@
     <row r="19" ht="15" customHeight="1" spans="1:21">
       <c r="A19" s="32"/>
       <c r="B19" s="33" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C19" s="34"/>
       <c r="D19" s="35"/>
@@ -4135,13 +2896,13 @@
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:21">
       <c r="A20" s="23" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D20" s="26">
         <v>57.9</v>
@@ -4195,10 +2956,10 @@
     <row r="21" ht="15" customHeight="1" spans="1:21">
       <c r="A21" s="23"/>
       <c r="B21" s="24" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D21" s="26">
         <v>5.1</v>
@@ -4245,13 +3006,13 @@
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:21">
       <c r="A22" s="42" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C22" s="44" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D22" s="45">
         <v>67.1</v>
@@ -4308,7 +3069,7 @@
     <row r="23" ht="15" customHeight="1" spans="1:21">
       <c r="A23" s="42"/>
       <c r="B23" s="43" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C23" s="44"/>
       <c r="D23" s="45"/>
@@ -4332,13 +3093,13 @@
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:21">
       <c r="A24" s="23" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D24" s="26">
         <v>57.9</v>
@@ -4392,10 +3153,10 @@
     <row r="25" ht="15" customHeight="1" spans="1:21">
       <c r="A25" s="23"/>
       <c r="B25" s="24" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D25" s="26">
         <v>5.1</v>
@@ -4442,13 +3203,13 @@
     </row>
     <row r="26" ht="15" customHeight="1" spans="1:21">
       <c r="A26" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="33" t="s">
-        <v>9</v>
-      </c>
       <c r="C26" s="34" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D26" s="35">
         <v>48.7</v>
@@ -4502,7 +3263,7 @@
     <row r="27" ht="15" customHeight="1" spans="1:21">
       <c r="A27" s="32"/>
       <c r="B27" s="33" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C27" s="34"/>
       <c r="D27" s="35"/>
@@ -4526,13 +3287,13 @@
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:21">
       <c r="A28" s="23" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D28" s="26">
         <v>24.4</v>
@@ -4586,10 +3347,10 @@
     <row r="29" ht="15" customHeight="1" spans="1:21">
       <c r="A29" s="23"/>
       <c r="B29" s="24" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D29" s="26">
         <v>5.1</v>
@@ -4636,10 +3397,10 @@
     </row>
     <row r="30" ht="15" customHeight="1" spans="1:21">
       <c r="A30" s="32" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C30" s="34"/>
       <c r="D30" s="35"/>
@@ -4670,10 +3431,10 @@
     <row r="31" ht="15" customHeight="1" spans="1:21">
       <c r="A31" s="32"/>
       <c r="B31" s="33" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D31" s="35">
         <v>2.54</v>
@@ -4720,13 +3481,13 @@
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:21">
       <c r="A32" s="23" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D32" s="26">
         <v>1.34</v>
@@ -4780,7 +3541,7 @@
     <row r="33" ht="15" customHeight="1" spans="1:21">
       <c r="A33" s="23"/>
       <c r="B33" s="24" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="26"/>
@@ -4804,10 +3565,10 @@
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:21">
       <c r="A34" s="52" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B34" s="53" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C34" s="54"/>
       <c r="D34" s="123"/>
@@ -4834,10 +3595,10 @@
     <row r="35" ht="15" customHeight="1" spans="1:21">
       <c r="A35" s="32"/>
       <c r="B35" s="33" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D35" s="35">
         <v>2.54</v>
@@ -4868,13 +3629,13 @@
     </row>
     <row r="36" ht="15" customHeight="1" spans="1:21">
       <c r="A36" s="23" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D36" s="26">
         <v>24.4</v>
@@ -4908,10 +3669,10 @@
     <row r="37" ht="15" customHeight="1" spans="1:21">
       <c r="A37" s="23"/>
       <c r="B37" s="24" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D37" s="26">
         <v>5.1</v>
@@ -4942,13 +3703,13 @@
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:21">
       <c r="A38" s="32" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D38" s="35">
         <v>57.9</v>
@@ -4982,10 +3743,10 @@
     <row r="39" ht="15" customHeight="1" spans="1:21">
       <c r="A39" s="32"/>
       <c r="B39" s="33" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D39" s="35">
         <v>5.1</v>
@@ -5016,13 +3777,13 @@
     </row>
     <row r="40" ht="15" customHeight="1" spans="1:21">
       <c r="A40" s="42" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C40" s="44" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D40" s="45">
         <v>67.1</v>
@@ -5057,7 +3818,7 @@
     <row r="41" ht="15" customHeight="1" spans="1:21">
       <c r="A41" s="42"/>
       <c r="B41" s="43" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C41" s="44"/>
       <c r="D41" s="45"/>
@@ -5081,13 +3842,13 @@
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:21">
       <c r="A42" s="32" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D42" s="35">
         <v>57.9</v>
@@ -5121,10 +3882,10 @@
     <row r="43" ht="15" customHeight="1" spans="1:21">
       <c r="A43" s="32"/>
       <c r="B43" s="33" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D43" s="35">
         <v>5.1</v>
@@ -5155,13 +3916,13 @@
     </row>
     <row r="44" ht="15" customHeight="1" spans="1:21">
       <c r="A44" s="23" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D44" s="26">
         <v>24.4</v>
@@ -5195,10 +3956,10 @@
     <row r="45" ht="15" customHeight="1" spans="1:21">
       <c r="A45" s="23"/>
       <c r="B45" s="24" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D45" s="26">
         <v>5.1</v>
@@ -5229,10 +3990,10 @@
     </row>
     <row r="46" ht="15" customHeight="1" spans="1:21">
       <c r="A46" s="32" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C46" s="34"/>
       <c r="D46" s="35"/>
@@ -5259,10 +4020,10 @@
     <row r="47" ht="15" customHeight="1" spans="1:21">
       <c r="A47" s="74"/>
       <c r="B47" s="75" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C47" s="76" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D47" s="145">
         <v>2.54</v>
@@ -5329,7 +4090,7 @@
     </row>
     <row r="50" spans="4:21">
       <c r="D50" s="185" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E50" s="186">
         <f>SUM(E12,E14,E16,E18,E20,E22,E24,E26,E28,E30,E32)/60</f>
@@ -5345,7 +4106,7 @@
       </c>
       <c r="H50" s="89"/>
       <c r="I50" s="152" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J50" s="93"/>
       <c r="K50" s="86">
@@ -5362,7 +4123,7 @@
       </c>
       <c r="N50" s="89"/>
       <c r="O50" s="152" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="P50" s="93"/>
       <c r="Q50" s="86">
@@ -5379,51 +4140,51 @@
       </c>
       <c r="T50" s="89"/>
       <c r="U50" s="152" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="4:21">
       <c r="D51" s="90"/>
       <c r="E51" s="91" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F51" s="91" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G51" s="91" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H51" s="92"/>
       <c r="I51" s="153" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J51" s="93"/>
       <c r="K51" s="90" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="L51" s="91" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="M51" s="91" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="N51" s="92"/>
       <c r="O51" s="153" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="P51" s="93"/>
       <c r="Q51" s="90" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="R51" s="91" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="S51" s="91" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="T51" s="92"/>
       <c r="U51" s="153" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="8:21">
@@ -5440,7 +4201,7 @@
     </row>
     <row r="53" spans="4:21">
       <c r="D53" s="185" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E53" s="186">
         <f>SUM(E34,E36,E38,E40,E42,E44,E46)/60</f>
@@ -5456,7 +4217,7 @@
       </c>
       <c r="H53" s="187"/>
       <c r="I53" s="152" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J53" s="93"/>
       <c r="K53" s="93"/>
@@ -5474,17 +4235,17 @@
     <row r="54" spans="4:21">
       <c r="D54" s="90"/>
       <c r="E54" s="91" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F54" s="91" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G54" s="91" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H54" s="91"/>
       <c r="I54" s="153" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="O54" s="93"/>
       <c r="U54" s="93"/>
@@ -5495,24 +4256,24 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="102" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" ht="28.8" spans="1:4">
       <c r="A57" s="103" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D57" s="104" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="105" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B58" s="106">
         <v>30</v>
@@ -5528,7 +4289,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="105" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B59" s="106">
         <v>45</v>
@@ -5544,7 +4305,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="105" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B60" s="106">
         <v>60</v>
@@ -5566,7 +4327,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="109" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B62" s="110">
         <v>6</v>
@@ -5610,13 +4371,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:U62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="AA33" sqref="AA33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -5630,107 +4391,107 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4">
         <v>40.6</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2" s="7">
         <v>3000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="B3" s="7">
         <v>1000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="B4" s="8">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4">
         <v>30</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="B6" s="4">
         <v>45</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4">
         <v>60</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="6:6">
       <c r="F8" s="6" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" ht="15.15"/>
     <row r="10" ht="35" customHeight="1" spans="1:21">
       <c r="A10" s="10" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
       <c r="D10" s="13" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -5738,7 +4499,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="116"/>
       <c r="J10" s="13" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
@@ -5746,7 +4507,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="116"/>
       <c r="P10" s="13" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
@@ -5759,69 +4520,69 @@
       <c r="B11" s="16"/>
       <c r="C11" s="17"/>
       <c r="D11" s="18" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="117" t="s">
-        <v>7</v>
-      </c>
       <c r="J11" s="18" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="K11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="M11" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="O11" s="117" t="s">
-        <v>7</v>
-      </c>
       <c r="P11" s="18" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="R11" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="T11" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="U11" s="117" t="s">
         <v>3</v>
-      </c>
-      <c r="R11" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="S11" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="T11" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="U11" s="117" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:21">
       <c r="A12" s="23" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D12" s="26">
         <v>1.34</v>
@@ -5875,7 +4636,7 @@
     <row r="13" ht="15" customHeight="1" spans="1:21">
       <c r="A13" s="23"/>
       <c r="B13" s="24" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
@@ -5899,10 +4660,10 @@
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:21">
       <c r="A14" s="32" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="35"/>
@@ -5933,10 +4694,10 @@
     <row r="15" ht="15" customHeight="1" spans="1:21">
       <c r="A15" s="32"/>
       <c r="B15" s="33" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D15" s="35">
         <v>2.54</v>
@@ -5983,13 +4744,13 @@
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:21">
       <c r="A16" s="23" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D16" s="26">
         <v>24.4</v>
@@ -6043,10 +4804,10 @@
     <row r="17" ht="15" customHeight="1" spans="1:21">
       <c r="A17" s="23"/>
       <c r="B17" s="24" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D17" s="26">
         <v>5.1</v>
@@ -6093,13 +4854,13 @@
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:21">
       <c r="A18" s="32" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D18" s="35">
         <v>48.7</v>
@@ -6153,7 +4914,7 @@
     <row r="19" ht="15" customHeight="1" spans="1:21">
       <c r="A19" s="32"/>
       <c r="B19" s="33" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C19" s="34"/>
       <c r="D19" s="35"/>
@@ -6177,13 +4938,13 @@
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:21">
       <c r="A20" s="23" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D20" s="26">
         <v>57.9</v>
@@ -6237,10 +4998,10 @@
     <row r="21" ht="15" customHeight="1" spans="1:21">
       <c r="A21" s="23"/>
       <c r="B21" s="24" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D21" s="26">
         <v>5.1</v>
@@ -6287,13 +5048,13 @@
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:21">
       <c r="A22" s="42" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C22" s="44" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D22" s="45">
         <v>67.1</v>
@@ -6350,7 +5111,7 @@
     <row r="23" ht="15" customHeight="1" spans="1:21">
       <c r="A23" s="42"/>
       <c r="B23" s="43" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C23" s="44"/>
       <c r="D23" s="45"/>
@@ -6374,13 +5135,13 @@
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:21">
       <c r="A24" s="23" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D24" s="26">
         <v>57.9</v>
@@ -6434,10 +5195,10 @@
     <row r="25" ht="15" customHeight="1" spans="1:21">
       <c r="A25" s="23"/>
       <c r="B25" s="24" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D25" s="26">
         <v>5.1</v>
@@ -6484,13 +5245,13 @@
     </row>
     <row r="26" ht="15" customHeight="1" spans="1:21">
       <c r="A26" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="33" t="s">
-        <v>9</v>
-      </c>
       <c r="C26" s="34" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D26" s="35">
         <v>48.7</v>
@@ -6544,7 +5305,7 @@
     <row r="27" ht="15" customHeight="1" spans="1:21">
       <c r="A27" s="32"/>
       <c r="B27" s="33" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C27" s="34"/>
       <c r="D27" s="35"/>
@@ -6568,13 +5329,13 @@
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:21">
       <c r="A28" s="23" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D28" s="26">
         <v>24.4</v>
@@ -6628,10 +5389,10 @@
     <row r="29" ht="15" customHeight="1" spans="1:21">
       <c r="A29" s="23"/>
       <c r="B29" s="24" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D29" s="26">
         <v>5.1</v>
@@ -6678,10 +5439,10 @@
     </row>
     <row r="30" ht="15" customHeight="1" spans="1:21">
       <c r="A30" s="32" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C30" s="34"/>
       <c r="D30" s="35"/>
@@ -6712,10 +5473,10 @@
     <row r="31" ht="15" customHeight="1" spans="1:21">
       <c r="A31" s="32"/>
       <c r="B31" s="33" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D31" s="35">
         <v>2.54</v>
@@ -6762,13 +5523,13 @@
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:21">
       <c r="A32" s="23" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D32" s="26">
         <v>1.34</v>
@@ -6822,7 +5583,7 @@
     <row r="33" ht="15" customHeight="1" spans="1:21">
       <c r="A33" s="23"/>
       <c r="B33" s="24" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="26"/>
@@ -6846,10 +5607,10 @@
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:21">
       <c r="A34" s="52" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B34" s="53" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C34" s="54"/>
       <c r="D34" s="55"/>
@@ -6878,10 +5639,10 @@
     <row r="35" ht="15" customHeight="1" spans="1:21">
       <c r="A35" s="32"/>
       <c r="B35" s="33" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D35" s="60">
         <v>2.54</v>
@@ -6920,13 +5681,13 @@
     </row>
     <row r="36" ht="15" customHeight="1" spans="1:21">
       <c r="A36" s="23" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D36" s="65">
         <v>24.4</v>
@@ -6970,10 +5731,10 @@
     <row r="37" ht="15" customHeight="1" spans="1:21">
       <c r="A37" s="23"/>
       <c r="B37" s="24" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D37" s="65">
         <v>5.1</v>
@@ -7012,13 +5773,13 @@
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:21">
       <c r="A38" s="32" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D38" s="60">
         <v>57.9</v>
@@ -7062,10 +5823,10 @@
     <row r="39" ht="15" customHeight="1" spans="1:21">
       <c r="A39" s="32"/>
       <c r="B39" s="33" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D39" s="60">
         <v>5.1</v>
@@ -7104,13 +5865,13 @@
     </row>
     <row r="40" ht="15" customHeight="1" spans="1:21">
       <c r="A40" s="42" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C40" s="44" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D40" s="70">
         <v>67.1</v>
@@ -7156,7 +5917,7 @@
     <row r="41" ht="15" customHeight="1" spans="1:21">
       <c r="A41" s="42"/>
       <c r="B41" s="43" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C41" s="44"/>
       <c r="D41" s="70"/>
@@ -7180,13 +5941,13 @@
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:21">
       <c r="A42" s="32" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D42" s="60">
         <v>57.9</v>
@@ -7230,10 +5991,10 @@
     <row r="43" ht="15" customHeight="1" spans="1:21">
       <c r="A43" s="32"/>
       <c r="B43" s="33" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D43" s="60">
         <v>5.1</v>
@@ -7272,13 +6033,13 @@
     </row>
     <row r="44" ht="15" customHeight="1" spans="1:21">
       <c r="A44" s="23" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D44" s="65">
         <v>24.4</v>
@@ -7322,10 +6083,10 @@
     <row r="45" ht="15" customHeight="1" spans="1:21">
       <c r="A45" s="23"/>
       <c r="B45" s="24" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D45" s="65">
         <v>5.1</v>
@@ -7364,10 +6125,10 @@
     </row>
     <row r="46" ht="15" customHeight="1" spans="1:21">
       <c r="A46" s="32" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C46" s="34"/>
       <c r="D46" s="60"/>
@@ -7396,10 +6157,10 @@
     <row r="47" ht="15" customHeight="1" spans="1:21">
       <c r="A47" s="74"/>
       <c r="B47" s="75" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C47" s="76" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D47" s="77">
         <v>2.54</v>
@@ -7474,7 +6235,7 @@
     </row>
     <row r="50" spans="4:21">
       <c r="D50" s="85" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E50" s="86">
         <f>SUM(E12,E14,E16,E18,E20,E22,E24,E26,E28,E30,E32)/60</f>
@@ -7490,7 +6251,7 @@
       </c>
       <c r="H50" s="89"/>
       <c r="I50" s="152" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J50" s="93"/>
       <c r="K50" s="86">
@@ -7507,7 +6268,7 @@
       </c>
       <c r="N50" s="89"/>
       <c r="O50" s="152" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="P50" s="93"/>
       <c r="Q50" s="86">
@@ -7524,50 +6285,50 @@
       </c>
       <c r="T50" s="89"/>
       <c r="U50" s="152" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="5:21">
       <c r="E51" s="90" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F51" s="91" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G51" s="91" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H51" s="92"/>
       <c r="I51" s="153" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J51" s="93"/>
       <c r="K51" s="90" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="L51" s="91" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="M51" s="91" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="N51" s="92"/>
       <c r="O51" s="153" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="P51" s="93"/>
       <c r="Q51" s="90" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="R51" s="91" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="S51" s="91" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="T51" s="92"/>
       <c r="U51" s="153" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="8:21">
@@ -7584,7 +6345,7 @@
     </row>
     <row r="53" spans="4:21">
       <c r="D53" s="85" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E53" s="94">
         <f>SUM(E34,E36,E38,E40,E42,E44,E46)/60</f>
@@ -7600,7 +6361,7 @@
       </c>
       <c r="H53" s="97"/>
       <c r="I53" s="154" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J53" s="93"/>
       <c r="K53" s="155">
@@ -7617,7 +6378,7 @@
       </c>
       <c r="N53" s="158"/>
       <c r="O53" s="159" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="P53" s="93"/>
       <c r="Q53" s="93"/>
@@ -7628,30 +6389,30 @@
     </row>
     <row r="54" spans="5:21">
       <c r="E54" s="98" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F54" s="99" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G54" s="99" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H54" s="99"/>
       <c r="I54" s="160" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K54" s="161" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="L54" s="162" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="M54" s="162" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="N54" s="162"/>
       <c r="O54" s="163" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="U54" s="93"/>
     </row>
@@ -7661,24 +6422,24 @@
     </row>
     <row r="56" s="1" customFormat="1" spans="1:1">
       <c r="A56" s="102" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" ht="28.8" spans="1:4">
       <c r="A57" s="103" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D57" s="104" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="105" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B58" s="106">
         <v>30</v>
@@ -7694,7 +6455,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="105" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B59" s="106">
         <v>45</v>
@@ -7710,7 +6471,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="105" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B60" s="106">
         <v>60</v>
@@ -7726,7 +6487,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="109" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B61" s="110">
         <v>6</v>
@@ -7742,7 +6503,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="113" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B62" s="114">
         <v>6</v>
